--- a/環境構成説明書_java.xlsx
+++ b/環境構成説明書_java.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miaozhixin/Desktop/MIAO/zuoye/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miaozhixin/Desktop/MIAO/zuoye/ckwuser_java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B9001-E240-1E4D-B08F-10C505BA9696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F38AC4-EF5E-5345-B4C3-842234BDF940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{FB4CCAFA-7A4A-BB4E-A06C-C05C25E21B7F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" activeTab="3" xr2:uid="{FB4CCAFA-7A4A-BB4E-A06C-C05C25E21B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="環境構成概要_java" sheetId="1" r:id="rId1"/>
     <sheet name="网站地址" sheetId="4" r:id="rId2"/>
     <sheet name="本地服务器启动" sheetId="5" r:id="rId3"/>
+    <sheet name="DB情报" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>項目</t>
   </si>
@@ -135,13 +136,144 @@
   <si>
     <t>http://localhost/phpmyadmin/index.php?route=/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/biu991226-gif/ckwuser_java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHP用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password23!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password123!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接续情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.206.154.211</t>
+  </si>
+  <si>
+    <t>Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mzx991226_zhixin</t>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种CREATE文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `users` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `firstName` varchar(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `lastName` varchar(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `email` varchar(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `password` varchar(50) NOT NULL</t>
+  </si>
+  <si>
+    <t>) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_general_ci;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `friend` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `from` varchar(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `to` varchar(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `status` int(1) NOT NULL</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `message` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `content` text NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `time` datetime NOT NULL</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `moments` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `time` datetime NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `content` text NOT NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +318,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -201,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,6 +372,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -233,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +409,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F789470-6AA3-1249-A53B-008305217427}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -751,6 +919,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="12" spans="1:3" ht="17">
       <c r="A12" s="1" t="s">
         <v>14</v>
@@ -813,6 +989,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{68ECC22A-6714-C748-97CE-C6A1A66AADC8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -863,7 +1042,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -872,4 +1051,214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB7B420-DAC7-4343-A9E9-81AB70E96732}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/環境構成説明書_java.xlsx
+++ b/環境構成説明書_java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miaozhixin/Desktop/MIAO/zuoye/ckwuser_java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F38AC4-EF5E-5345-B4C3-842234BDF940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157F8C81-2EFF-5647-8FAB-52063A37F20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" activeTab="3" xr2:uid="{FB4CCAFA-7A4A-BB4E-A06C-C05C25E21B7F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{FB4CCAFA-7A4A-BB4E-A06C-C05C25E21B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="環境構成概要_java" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F789470-6AA3-1249-A53B-008305217427}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB7B420-DAC7-4343-A9E9-81AB70E96732}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
